--- a/ResultadoEleicoesDistritos/ÉVORA_VIANA DO ALENTEJO.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_VIANA DO ALENTEJO.xlsx
@@ -597,64 +597,64 @@
         <v>1394</v>
       </c>
       <c r="H2" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="J2" t="n">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M2" t="n">
+        <v>14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>114</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>71</v>
+      </c>
+      <c r="T2" t="n">
+        <v>93</v>
+      </c>
+      <c r="U2" t="n">
         <v>8</v>
       </c>
-      <c r="N2" t="n">
-        <v>101</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>74</v>
-      </c>
-      <c r="T2" t="n">
-        <v>82</v>
-      </c>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
       <c r="V2" t="n">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>926</v>
+        <v>874</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
